--- a/Test/Lawnmower/T2/Sensors_data_1000045.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000045.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9773156631918508</v>
+        <v>0.9939424219852601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005487329030388687</v>
+        <v>0.0004024614174321152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1521981063386992</v>
+        <v>0.003914037651468194</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1716895750975076</v>
+        <v>0.8327357965278992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02992122340675277</v>
+        <v>0.00741711745276799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6318195030464405</v>
+        <v>0.01018422687929277</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4020568182418328</v>
+        <v>0.9911567295194733</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0481992347049451</v>
+        <v>0.000455673240613575</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4467610254557599</v>
+        <v>0.1301834718270979</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,18 +550,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9828591207655982</v>
+        <v>0.9161245839065211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006455246964391531</v>
+        <v>0.004051109027227839</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01511977696816375</v>
+        <v>0.03294591915654854</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9811001873381404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0004571854648669874</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09217495215798543</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
